--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KUA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KUA_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -927,11 +927,23 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>Het gebruik van een woordenboek is niet toegestaan</t>
   </si>
   <si>
     <t xml:space="preserve">Herhalingsopdracht Cultuur van het Moderne (1e helft v/d 20e eeuw)
 </t>
+  </si>
+  <si>
+    <t>Theoretische toets-handelingsdeel Massacultuur (vanaf 1950); wordt in TW1 afgenomen</t>
+  </si>
+  <si>
+    <t>Hofcultuur (16e en 17e eeuw)</t>
+  </si>
+  <si>
+    <t>Proefexamen-handelingsdeel over drie of vier eindexamenonderwerpen: - Hofcultuur (16e en 17e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (vanaf 1950); wordt in TW3 afgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">Herhalingsopdracht Burgerlijke Cultuur van Nederland (17e eeuw) </t>
@@ -955,6 +967,9 @@
     <t>Grieken &amp; Romeinen II</t>
   </si>
   <si>
+    <t>Massacultuur (vanaf 1950)</t>
+  </si>
+  <si>
     <t>Massacultuur (2e helft 20e eeuw- heden)</t>
   </si>
   <si>
@@ -964,10 +979,25 @@
     <t>Hofcultuur - II (16e/ 17e eeuw)</t>
   </si>
   <si>
+    <t>Burgerlijke cultuur van Nederland - I (17e eeuw)</t>
+  </si>
+  <si>
     <t>Cultuur van Romantiek en Realisme - I (19e eeuw)</t>
   </si>
   <si>
     <t>Cultuur van Romantiek en Realisme - II (19e eeuw)</t>
+  </si>
+  <si>
+    <t>Herhalingsopdracht Cultuur van het Moderne (1e helft 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Herhalingsopdracht Cultuur van Romantiek &amp; Realisme (19e eeuw)</t>
+  </si>
+  <si>
+    <t>Herhalingsopdracht Hofcultuur (16e t/m 17e eeuw)</t>
+  </si>
+  <si>
+    <t>Proefexamen over drie of vier eindexamenonderwerpen: - Hofcultuur (16e t/m 17e eeuw) - Cultuur van Romantiek en Realisme (97e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (vanaf 1950); wordt in TW3 afgenomen</t>
   </si>
   <si>
     <t>Herhalingsopdracht Cultuur van het Moderne (1e helft v/d 20e eeuw)</t>
@@ -977,9 +1007,6 @@
   </si>
   <si>
     <t>Theoretische toets-handelingsdeel Cultuur van Romantiek &amp; Realisme (19e eeuw)</t>
-  </si>
-  <si>
-    <t>Herhalingsopdracht Hofcultuur (16e t/m 17e eeuw)</t>
   </si>
   <si>
     <t>Proefexamen over drie of vier eindexamenonderwerpen: - Hofcultuur (16e t/m 17e eeuw) - Cultuur van Romantiek en Realisme (97e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (2e helft v/d 20e eeuw tot heden)</t>
@@ -2209,7 +2236,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2382,7 +2409,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2427,7 +2454,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2443,7 +2470,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2478,7 +2505,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2523,7 +2550,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2539,7 +2566,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2574,7 +2601,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2619,7 +2646,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2635,7 +2662,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2671,7 +2698,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2716,7 +2743,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -2732,7 +2759,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -2741,7 +2768,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2">
         <v>1063</v>
@@ -2768,7 +2795,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2813,7 +2840,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -2829,7 +2856,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -4485,7 +4512,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4658,7 +4685,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4703,7 +4730,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4719,7 +4746,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4754,7 +4781,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4799,7 +4826,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4815,7 +4842,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4850,7 +4877,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4895,7 +4922,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4911,7 +4938,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4947,7 +4974,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4992,7 +5019,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -5008,7 +5035,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -5017,7 +5044,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2">
         <v>519</v>
@@ -5044,7 +5071,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5089,7 +5116,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -5105,7 +5132,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5268,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5399,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5412,7 +5439,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5457,7 +5484,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -5473,7 +5500,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -5482,23 +5509,25 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="45"/>
+      <c r="L19" s="45">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -5519,7 +5548,7 @@
       </c>
       <c r="V19" s="7">
         <f>IF(OR(AND($L19&lt;&gt;"",OR($J19=instellingen!$H$5,$J19=instellingen!$H$6,,$J19=instellingen!$H$7)),AND(ISBLANK($L19),OR($J19=instellingen!$H$3,$J19=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="7">
         <f>IF(ISBLANK($M19),1,0)</f>
@@ -5543,7 +5572,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -5571,24 +5600,20 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="45">
-        <v>100</v>
-      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -5609,7 +5634,7 @@
       </c>
       <c r="V20" s="7">
         <f>IF(OR(AND($L20&lt;&gt;"",OR($J20=instellingen!$H$5,$J20=instellingen!$H$6,,$J20=instellingen!$H$7)),AND(ISBLANK($L20),OR($J20=instellingen!$H$3,$J20=instellingen!$H$4,))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="7">
         <f>IF(ISBLANK($M20),1,0)</f>
@@ -5633,7 +5658,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -5649,7 +5674,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -5667,9 +5692,7 @@
       <c r="J21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="30" t="s">
-        <v>81</v>
-      </c>
+      <c r="K21" s="30"/>
       <c r="L21" s="45">
         <v>180</v>
       </c>
@@ -5678,7 +5701,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -5723,7 +5746,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -5739,7 +5762,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -6787,7 +6810,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -7287,7 +7310,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7659,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7672,7 +7695,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7717,7 +7740,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -7733,7 +7756,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -7745,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7758,7 +7781,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -7803,7 +7826,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -7819,7 +7842,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -7831,14 +7854,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -7848,7 +7871,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -7893,7 +7916,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -7909,7 +7932,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -7921,14 +7944,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L21" s="45">
         <v>180</v>
@@ -7938,7 +7961,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -7983,7 +8006,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -7999,7 +8022,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -9047,7 +9070,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9193,7 +9216,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>1073</v>
@@ -9203,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9220,7 +9243,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9265,7 +9288,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9281,7 +9304,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9299,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -9316,7 +9339,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9361,7 +9384,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9377,7 +9400,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9412,7 +9435,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9457,7 +9480,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9473,7 +9496,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9509,7 +9532,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9554,7 +9577,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9570,7 +9593,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9579,7 +9602,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2">
         <v>1077</v>
@@ -9589,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -9606,7 +9629,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9651,7 +9674,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -9667,7 +9690,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -11325,7 +11348,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11471,7 +11494,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>524</v>
@@ -11481,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11498,7 +11521,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11543,7 +11566,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11559,7 +11582,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11577,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11594,7 +11617,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11639,7 +11662,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11655,7 +11678,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11690,7 +11713,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11735,7 +11758,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11751,7 +11774,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11787,7 +11810,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11832,7 +11855,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11848,7 +11871,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11857,7 +11880,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2">
         <v>528</v>
@@ -11867,7 +11890,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11884,7 +11907,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -11929,7 +11952,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -11945,7 +11968,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12108,7 +12131,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12239,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12256,7 +12279,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12301,7 +12324,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -12317,7 +12340,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -12329,7 +12352,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12346,7 +12369,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12391,7 +12414,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -12407,7 +12430,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -12419,7 +12442,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12436,7 +12459,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12481,7 +12504,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -12497,7 +12520,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -12509,7 +12532,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12526,7 +12549,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12571,7 +12594,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -12587,7 +12610,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -13637,7 +13660,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13783,7 +13806,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14137,7 +14160,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14509,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14526,7 +14549,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14571,7 +14594,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -14587,7 +14610,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14599,7 +14622,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14616,7 +14639,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14661,7 +14684,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -14677,7 +14700,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -14689,7 +14712,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14706,7 +14729,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14751,7 +14774,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -14767,7 +14790,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -14779,7 +14802,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14796,7 +14819,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -14841,7 +14864,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -14857,7 +14880,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -15074,7 +15097,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15198,20 +15221,24 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="45">
+        <v>100</v>
+      </c>
       <c r="M30" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -15232,7 +15259,7 @@
       </c>
       <c r="V30" s="7">
         <f>IF(OR(AND($L30&lt;&gt;"",OR($J30=instellingen!$H$5,$J30=instellingen!$H$6,,$J30=instellingen!$H$7)),AND(ISBLANK($L30),OR($J30=instellingen!$H$3,$J30=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="7">
         <f>IF(ISBLANK($M30),1,0)</f>
@@ -15256,7 +15283,7 @@
       </c>
       <c r="AB30" s="7">
         <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="7">
         <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
@@ -15284,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15297,7 +15324,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -15342,7 +15369,7 @@
       </c>
       <c r="AB31" s="7">
         <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="7">
         <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
@@ -15358,7 +15385,7 @@
       </c>
       <c r="AF31" s="8">
         <f>SUM(R31:AE31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1" ht="72">
@@ -15370,24 +15397,20 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="45">
-        <v>100</v>
-      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -15408,7 +15431,7 @@
       </c>
       <c r="V32" s="7">
         <f>IF(OR(AND($L32&lt;&gt;"",OR($J32=instellingen!$H$5,$J32=instellingen!$H$6,,$J32=instellingen!$H$7)),AND(ISBLANK($L32),OR($J32=instellingen!$H$3,$J32=instellingen!$H$4,))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="7">
         <f>IF(ISBLANK($M32),1,0)</f>
@@ -15432,7 +15455,7 @@
       </c>
       <c r="AB32" s="7">
         <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="7">
         <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
@@ -15448,7 +15471,7 @@
       </c>
       <c r="AF32" s="8">
         <f>SUM(R32:AE32)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:32" customHeight="1" ht="72">
@@ -15460,7 +15483,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -15473,7 +15496,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -15518,7 +15541,7 @@
       </c>
       <c r="AB33" s="7">
         <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="7">
         <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
@@ -15534,7 +15557,7 @@
       </c>
       <c r="AF33" s="8">
         <f>SUM(R33:AE33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1" ht="72">
@@ -15546,14 +15569,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L34" s="45">
         <v>180</v>
@@ -15563,7 +15586,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -15608,7 +15631,7 @@
       </c>
       <c r="AB34" s="7">
         <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="7">
         <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
@@ -15624,7 +15647,7 @@
       </c>
       <c r="AF34" s="8">
         <f>SUM(R34:AE34)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" customHeight="1" ht="72">
@@ -15937,7 +15960,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -16083,7 +16106,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16437,7 +16460,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17464,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17477,7 +17500,7 @@
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -17522,7 +17545,7 @@
       </c>
       <c r="AB30" s="7">
         <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="7">
         <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
@@ -17538,7 +17561,7 @@
       </c>
       <c r="AF30" s="8">
         <f>SUM(R30:AE30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1" ht="72">
@@ -17550,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17563,7 +17586,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -17608,7 +17631,7 @@
       </c>
       <c r="AB31" s="7">
         <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="7">
         <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
@@ -17624,7 +17647,7 @@
       </c>
       <c r="AF31" s="8">
         <f>SUM(R31:AE31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1" ht="72">
@@ -17636,14 +17659,14 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L32" s="45">
         <v>100</v>
@@ -17653,7 +17676,7 @@
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -17698,7 +17721,7 @@
       </c>
       <c r="AB32" s="7">
         <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="7">
         <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
@@ -17714,7 +17737,7 @@
       </c>
       <c r="AF32" s="8">
         <f>SUM(R32:AE32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:32" customHeight="1" ht="72">
@@ -17726,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17739,7 +17762,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -17784,7 +17807,7 @@
       </c>
       <c r="AB33" s="7">
         <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="7">
         <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
@@ -17800,7 +17823,7 @@
       </c>
       <c r="AF33" s="8">
         <f>SUM(R33:AE33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1" ht="72">
@@ -17812,14 +17835,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L34" s="45">
         <v>180</v>
@@ -17829,7 +17852,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -17874,7 +17897,7 @@
       </c>
       <c r="AB34" s="7">
         <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="7">
         <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
@@ -17890,7 +17913,7 @@
       </c>
       <c r="AF34" s="8">
         <f>SUM(R34:AE34)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KUA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KUA_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>Cultuur van het Moderne - I (1e helft van de 20e eeuw)</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -925,9 +928,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Het gebruik van een woordenboek is niet toegestaan</t>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2475,7 +2475,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2571,7 +2571,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>254</v>
@@ -2584,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2681,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2764,11 +2764,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2">
         <v>1063</v>
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4751,7 +4751,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4847,7 +4847,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>158</v>
@@ -4860,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4943,7 +4943,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4957,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5040,11 +5040,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2">
         <v>519</v>
@@ -5054,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5137,7 +5137,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -7041,7 +7041,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>159</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7306,11 +7306,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9309,7 +9309,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9405,7 +9405,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>255</v>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9501,7 +9501,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9515,7 +9515,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9598,11 +9598,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2">
         <v>1077</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9695,7 +9695,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9846,7 +9846,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11587,7 +11587,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11683,7 +11683,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11779,7 +11779,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11793,7 +11793,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11876,11 +11876,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2">
         <v>528</v>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -11973,7 +11973,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12085,7 +12085,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -13891,7 +13891,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>161</v>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14156,11 +14156,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -15586,7 +15586,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -16191,7 +16191,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>162</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16456,11 +16456,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16634,7 +16634,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16696,7 +16696,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16726,7 +16726,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
